--- a/artfynd/A 1159-2026 artfynd.xlsx
+++ b/artfynd/A 1159-2026 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131153674</v>
+        <v>131153673</v>
       </c>
       <c r="B2" t="n">
-        <v>58256</v>
+        <v>8451</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,29 +691,30 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>103015</v>
+        <v>106545</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -723,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>432797</v>
+        <v>432931</v>
       </c>
       <c r="R2" t="n">
-        <v>6792464</v>
+        <v>6792867</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -767,6 +768,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -785,7 +787,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131153673</v>
+        <v>131153657</v>
       </c>
       <c r="B3" t="n">
         <v>8451</v>
@@ -829,10 +831,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>432931</v>
+        <v>432798</v>
       </c>
       <c r="R3" t="n">
-        <v>6792867</v>
+        <v>6792471</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -892,7 +894,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131153657</v>
+        <v>131153661</v>
       </c>
       <c r="B4" t="n">
         <v>8451</v>
@@ -926,7 +928,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -936,10 +938,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>432798</v>
+        <v>433099</v>
       </c>
       <c r="R4" t="n">
-        <v>6792471</v>
+        <v>6792610</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -999,10 +1001,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131153661</v>
+        <v>131153674</v>
       </c>
       <c r="B5" t="n">
-        <v>8451</v>
+        <v>58256</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1010,30 +1012,29 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>106545</v>
+        <v>103015</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1043,10 +1044,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>433099</v>
+        <v>432797</v>
       </c>
       <c r="R5" t="n">
-        <v>6792610</v>
+        <v>6792464</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1087,7 +1088,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131153663</v>
+        <v>131153656</v>
       </c>
       <c r="B11" t="n">
         <v>8451</v>
@@ -1653,10 +1653,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>433024</v>
+        <v>432815</v>
       </c>
       <c r="R11" t="n">
-        <v>6792572</v>
+        <v>6792564</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131153656</v>
+        <v>131153663</v>
       </c>
       <c r="B12" t="n">
         <v>8451</v>
@@ -1760,10 +1760,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>432815</v>
+        <v>433024</v>
       </c>
       <c r="R12" t="n">
-        <v>6792564</v>
+        <v>6792572</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2211,37 +2211,43 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131153706</v>
+        <v>131153645</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>5480</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>101920</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Raggbock</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tragosoma depsarium</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1767)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2249,10 +2255,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>433126</v>
+        <v>432996</v>
       </c>
       <c r="R17" t="n">
-        <v>6792522</v>
+        <v>6792672</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2291,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="AE17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
@@ -2312,10 +2318,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131153695</v>
+        <v>131153635</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2323,34 +2329,42 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>432708</v>
+        <v>432968</v>
       </c>
       <c r="R18" t="n">
-        <v>6792430</v>
+        <v>6792680</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2409,10 +2423,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131153635</v>
+        <v>131153706</v>
       </c>
       <c r="B19" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2420,31 +2434,26 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2452,10 +2461,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>432968</v>
+        <v>433126</v>
       </c>
       <c r="R19" t="n">
-        <v>6792680</v>
+        <v>6792522</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2496,6 +2505,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2514,54 +2524,45 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131153668</v>
+        <v>131153695</v>
       </c>
       <c r="B20" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>432974</v>
+        <v>432708</v>
       </c>
       <c r="R20" t="n">
-        <v>6792777</v>
+        <v>6792430</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2602,7 +2603,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2621,32 +2621,32 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131153645</v>
+        <v>131153668</v>
       </c>
       <c r="B21" t="n">
-        <v>5480</v>
+        <v>8451</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>101920</v>
+        <v>106545</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Raggbock</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Tragosoma depsarium</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1767)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>432996</v>
+        <v>432974</v>
       </c>
       <c r="R21" t="n">
-        <v>6792672</v>
+        <v>6792777</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="AE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
@@ -2728,10 +2728,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131153719</v>
+        <v>131153622</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2739,26 +2739,31 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -2766,10 +2771,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>432964</v>
+        <v>432996</v>
       </c>
       <c r="R22" t="n">
-        <v>6792760</v>
+        <v>6792778</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2810,7 +2815,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -2829,7 +2833,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131153729</v>
+        <v>131153719</v>
       </c>
       <c r="B23" t="n">
         <v>79243</v>
@@ -2858,16 +2862,19 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>432924</v>
+        <v>432964</v>
       </c>
       <c r="R23" t="n">
-        <v>6792835</v>
+        <v>6792760</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2908,6 +2915,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -2926,10 +2934,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131153622</v>
+        <v>131153729</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2937,42 +2945,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>432996</v>
+        <v>432924</v>
       </c>
       <c r="R24" t="n">
-        <v>6792778</v>
+        <v>6792835</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3031,54 +3031,45 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131153672</v>
+        <v>131153718</v>
       </c>
       <c r="B25" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>432901</v>
+        <v>432974</v>
       </c>
       <c r="R25" t="n">
-        <v>6792829</v>
+        <v>6792746</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3119,7 +3110,6 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3138,45 +3128,54 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131153718</v>
+        <v>131153672</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>432974</v>
+        <v>432901</v>
       </c>
       <c r="R26" t="n">
-        <v>6792746</v>
+        <v>6792829</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3217,6 +3216,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3429,10 +3429,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131153641</v>
+        <v>131153690</v>
       </c>
       <c r="B29" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3440,31 +3440,26 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3472,10 +3467,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>432909</v>
+        <v>432874</v>
       </c>
       <c r="R29" t="n">
-        <v>6792876</v>
+        <v>6792733</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3516,6 +3511,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3534,41 +3530,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131153658</v>
+        <v>131153641</v>
       </c>
       <c r="B30" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -3578,10 +3573,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>433053</v>
+        <v>432909</v>
       </c>
       <c r="R30" t="n">
-        <v>6792381</v>
+        <v>6792876</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3622,7 +3617,6 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -3641,41 +3635,40 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131153665</v>
+        <v>131153630</v>
       </c>
       <c r="B31" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
@@ -3685,10 +3678,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>432959</v>
+        <v>433062</v>
       </c>
       <c r="R31" t="n">
-        <v>6792711</v>
+        <v>6792357</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3729,7 +3722,6 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -3845,37 +3837,43 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131153690</v>
+        <v>131153658</v>
       </c>
       <c r="B33" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -3883,10 +3881,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>432874</v>
+        <v>433053</v>
       </c>
       <c r="R33" t="n">
-        <v>6792733</v>
+        <v>6792381</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3946,40 +3944,41 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131153630</v>
+        <v>131153665</v>
       </c>
       <c r="B34" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -3989,10 +3988,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>433062</v>
+        <v>432959</v>
       </c>
       <c r="R34" t="n">
-        <v>6792357</v>
+        <v>6792711</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4033,6 +4032,7 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131153703</v>
+        <v>131153628</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4159,34 +4159,42 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>433063</v>
+        <v>432884</v>
       </c>
       <c r="R36" t="n">
-        <v>6792351</v>
+        <v>6792734</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4245,7 +4253,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131153702</v>
+        <v>131153703</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -4280,10 +4288,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>433004</v>
+        <v>433063</v>
       </c>
       <c r="R37" t="n">
-        <v>6792374</v>
+        <v>6792351</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4342,10 +4350,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131153628</v>
+        <v>131153702</v>
       </c>
       <c r="B38" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4353,42 +4361,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>432884</v>
+        <v>433004</v>
       </c>
       <c r="R38" t="n">
-        <v>6792734</v>
+        <v>6792374</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4646,10 +4646,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131153643</v>
+        <v>131153708</v>
       </c>
       <c r="B41" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4657,42 +4657,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>432969</v>
+        <v>433106</v>
       </c>
       <c r="R41" t="n">
-        <v>6792418</v>
+        <v>6792609</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4751,7 +4743,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131153708</v>
+        <v>131153710</v>
       </c>
       <c r="B42" t="n">
         <v>79243</v>
@@ -4786,10 +4778,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>433106</v>
+        <v>433013</v>
       </c>
       <c r="R42" t="n">
-        <v>6792609</v>
+        <v>6792587</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4848,10 +4840,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131153640</v>
+        <v>131153691</v>
       </c>
       <c r="B43" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4859,42 +4851,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>432940</v>
+        <v>432881</v>
       </c>
       <c r="R43" t="n">
-        <v>6792843</v>
+        <v>6792694</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4953,7 +4937,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131153710</v>
+        <v>131153722</v>
       </c>
       <c r="B44" t="n">
         <v>79243</v>
@@ -4988,10 +4972,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>433013</v>
+        <v>432939</v>
       </c>
       <c r="R44" t="n">
-        <v>6792587</v>
+        <v>6792795</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5050,7 +5034,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131153691</v>
+        <v>131153692</v>
       </c>
       <c r="B45" t="n">
         <v>79243</v>
@@ -5085,10 +5069,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>432881</v>
+        <v>432901</v>
       </c>
       <c r="R45" t="n">
-        <v>6792694</v>
+        <v>6792625</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5147,10 +5131,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131153722</v>
+        <v>131153640</v>
       </c>
       <c r="B46" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5158,34 +5142,42 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>432939</v>
+        <v>432940</v>
       </c>
       <c r="R46" t="n">
-        <v>6792795</v>
+        <v>6792843</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5244,10 +5236,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131153692</v>
+        <v>131153643</v>
       </c>
       <c r="B47" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5255,34 +5247,42 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>432901</v>
+        <v>432969</v>
       </c>
       <c r="R47" t="n">
-        <v>6792625</v>
+        <v>6792418</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5660,10 +5660,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131153709</v>
+        <v>131153653</v>
       </c>
       <c r="B51" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5671,34 +5671,37 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>433034</v>
+        <v>432956</v>
       </c>
       <c r="R51" t="n">
-        <v>6792553</v>
+        <v>6792683</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5739,6 +5742,7 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -5757,10 +5761,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131153700</v>
+        <v>131153651</v>
       </c>
       <c r="B52" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5768,34 +5772,37 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>432910</v>
+        <v>433104</v>
       </c>
       <c r="R52" t="n">
-        <v>6792364</v>
+        <v>6792573</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5836,6 +5843,7 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
+      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -5854,7 +5862,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131153713</v>
+        <v>131153709</v>
       </c>
       <c r="B53" t="n">
         <v>79243</v>
@@ -5889,10 +5897,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>432988</v>
+        <v>433034</v>
       </c>
       <c r="R53" t="n">
-        <v>6792669</v>
+        <v>6792553</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -5951,10 +5959,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131153653</v>
+        <v>131153700</v>
       </c>
       <c r="B54" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5962,37 +5970,34 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>432956</v>
+        <v>432910</v>
       </c>
       <c r="R54" t="n">
-        <v>6792683</v>
+        <v>6792364</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6033,7 +6038,6 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -6052,10 +6056,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131153651</v>
+        <v>131153713</v>
       </c>
       <c r="B55" t="n">
-        <v>79001</v>
+        <v>79243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6063,37 +6067,34 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>433104</v>
+        <v>432988</v>
       </c>
       <c r="R55" t="n">
-        <v>6792573</v>
+        <v>6792669</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6134,7 +6135,6 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
@@ -6444,10 +6444,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131153638</v>
+        <v>131153704</v>
       </c>
       <c r="B59" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6455,42 +6455,34 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>432927</v>
+        <v>433115</v>
       </c>
       <c r="R59" t="n">
-        <v>6792752</v>
+        <v>6792436</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6549,10 +6541,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131153704</v>
+        <v>131153618</v>
       </c>
       <c r="B60" t="n">
-        <v>79243</v>
+        <v>79833</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6560,21 +6552,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>229821</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6584,10 +6576,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>433115</v>
+        <v>433073</v>
       </c>
       <c r="R60" t="n">
-        <v>6792436</v>
+        <v>6792637</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6646,10 +6638,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131153618</v>
+        <v>131153649</v>
       </c>
       <c r="B61" t="n">
-        <v>79833</v>
+        <v>79001</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6657,21 +6649,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>229821</v>
+        <v>228912</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -6681,10 +6673,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>433073</v>
+        <v>432719</v>
       </c>
       <c r="R61" t="n">
-        <v>6792637</v>
+        <v>6792423</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -6743,10 +6735,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131153649</v>
+        <v>131153638</v>
       </c>
       <c r="B62" t="n">
-        <v>79001</v>
+        <v>57881</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6754,34 +6746,42 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>228912</v>
+        <v>100049</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>432719</v>
+        <v>432927</v>
       </c>
       <c r="R62" t="n">
-        <v>6792423</v>
+        <v>6792752</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -6840,10 +6840,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131153693</v>
+        <v>131153633</v>
       </c>
       <c r="B63" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6851,34 +6851,42 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>432849</v>
+        <v>432972</v>
       </c>
       <c r="R63" t="n">
-        <v>6792616</v>
+        <v>6792667</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -6937,10 +6945,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131153633</v>
+        <v>131153693</v>
       </c>
       <c r="B64" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6948,42 +6956,34 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>432972</v>
+        <v>432849</v>
       </c>
       <c r="R64" t="n">
-        <v>6792667</v>
+        <v>6792616</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7250,41 +7250,40 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131153655</v>
+        <v>131153636</v>
       </c>
       <c r="B67" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N67" t="inlineStr"/>
@@ -7294,10 +7293,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>432876</v>
+        <v>432931</v>
       </c>
       <c r="R67" t="n">
-        <v>6792590</v>
+        <v>6792717</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7338,7 +7337,6 @@
       <c r="AE67" t="b">
         <v>0</v>
       </c>
-      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
@@ -7357,7 +7355,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131153636</v>
+        <v>131153634</v>
       </c>
       <c r="B68" t="n">
         <v>57881</v>
@@ -7390,7 +7388,7 @@
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N68" t="inlineStr"/>
@@ -7400,10 +7398,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>432931</v>
+        <v>432989</v>
       </c>
       <c r="R68" t="n">
-        <v>6792717</v>
+        <v>6792671</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7559,10 +7557,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131153634</v>
+        <v>131153679</v>
       </c>
       <c r="B70" t="n">
-        <v>57881</v>
+        <v>79000</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7570,42 +7568,34 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100049</v>
+        <v>6446</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>432989</v>
+        <v>432956</v>
       </c>
       <c r="R70" t="n">
-        <v>6792671</v>
+        <v>6792683</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -7664,45 +7654,54 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131153679</v>
+        <v>131153655</v>
       </c>
       <c r="B71" t="n">
-        <v>79000</v>
+        <v>8451</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6446</v>
+        <v>106545</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>432956</v>
+        <v>432876</v>
       </c>
       <c r="R71" t="n">
-        <v>6792683</v>
+        <v>6792590</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -7743,6 +7742,7 @@
       <c r="AE71" t="b">
         <v>0</v>
       </c>
+      <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="b">
         <v>0</v>
       </c>
@@ -7862,10 +7862,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131153711</v>
+        <v>131153639</v>
       </c>
       <c r="B73" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7873,34 +7873,42 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>432942</v>
+        <v>432988</v>
       </c>
       <c r="R73" t="n">
-        <v>6792639</v>
+        <v>6792798</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -7959,7 +7967,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131153726</v>
+        <v>131153711</v>
       </c>
       <c r="B74" t="n">
         <v>79243</v>
@@ -7994,10 +8002,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>432891</v>
+        <v>432942</v>
       </c>
       <c r="R74" t="n">
-        <v>6792834</v>
+        <v>6792639</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8056,7 +8064,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131153721</v>
+        <v>131153726</v>
       </c>
       <c r="B75" t="n">
         <v>79243</v>
@@ -8085,19 +8093,16 @@
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>432957</v>
+        <v>432891</v>
       </c>
       <c r="R75" t="n">
-        <v>6792790</v>
+        <v>6792834</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8132,18 +8137,12 @@
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AC75" t="inlineStr">
-        <is>
-          <t>Måttligt med garnlav inom en radie av 50m</t>
-        </is>
-      </c>
       <c r="AD75" t="b">
         <v>0</v>
       </c>
       <c r="AE75" t="b">
         <v>0</v>
       </c>
-      <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="b">
         <v>0</v>
       </c>
@@ -8162,7 +8161,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131153699</v>
+        <v>131153721</v>
       </c>
       <c r="B76" t="n">
         <v>79243</v>
@@ -8191,16 +8190,19 @@
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>432849</v>
+        <v>432957</v>
       </c>
       <c r="R76" t="n">
-        <v>6792408</v>
+        <v>6792790</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8235,12 +8237,18 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>Måttligt med garnlav inom en radie av 50m</t>
+        </is>
+      </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
       <c r="AE76" t="b">
         <v>0</v>
       </c>
+      <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="b">
         <v>0</v>
       </c>
@@ -8259,10 +8267,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131153639</v>
+        <v>131153699</v>
       </c>
       <c r="B77" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8270,42 +8278,34 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>432988</v>
+        <v>432849</v>
       </c>
       <c r="R77" t="n">
-        <v>6792798</v>
+        <v>6792408</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8364,10 +8364,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131153705</v>
+        <v>131153625</v>
       </c>
       <c r="B78" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8375,34 +8375,37 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>433133</v>
+        <v>433119</v>
       </c>
       <c r="R78" t="n">
-        <v>6792485</v>
+        <v>6792436</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8443,6 +8446,7 @@
       <c r="AE78" t="b">
         <v>0</v>
       </c>
+      <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="b">
         <v>0</v>
       </c>
@@ -8461,37 +8465,43 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131153625</v>
+        <v>131153669</v>
       </c>
       <c r="B79" t="n">
-        <v>91829</v>
+        <v>8451</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>5442</v>
+        <v>106545</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
@@ -8499,10 +8509,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>433119</v>
+        <v>432941</v>
       </c>
       <c r="R79" t="n">
-        <v>6792436</v>
+        <v>6792778</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -8659,54 +8669,45 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131153669</v>
+        <v>131153705</v>
       </c>
       <c r="B81" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>432941</v>
+        <v>433133</v>
       </c>
       <c r="R81" t="n">
-        <v>6792778</v>
+        <v>6792485</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -8747,7 +8748,6 @@
       <c r="AE81" t="b">
         <v>0</v>
       </c>
-      <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="b">
         <v>0</v>
       </c>
@@ -8766,10 +8766,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131153728</v>
+        <v>131153624</v>
       </c>
       <c r="B82" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8777,34 +8777,37 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>432945</v>
+        <v>433010</v>
       </c>
       <c r="R82" t="n">
-        <v>6792842</v>
+        <v>6792353</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -8845,6 +8848,7 @@
       <c r="AE82" t="b">
         <v>0</v>
       </c>
+      <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="b">
         <v>0</v>
       </c>
@@ -8863,10 +8867,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131153624</v>
+        <v>131153728</v>
       </c>
       <c r="B83" t="n">
-        <v>91829</v>
+        <v>79243</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8874,37 +8878,34 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>433010</v>
+        <v>432945</v>
       </c>
       <c r="R83" t="n">
-        <v>6792353</v>
+        <v>6792842</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -8945,7 +8946,6 @@
       <c r="AE83" t="b">
         <v>0</v>
       </c>
-      <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="b">
         <v>0</v>
       </c>
@@ -9168,7 +9168,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131153664</v>
+        <v>131153666</v>
       </c>
       <c r="B86" t="n">
         <v>8451</v>
@@ -9202,7 +9202,7 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
@@ -9212,10 +9212,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>433001</v>
+        <v>432913</v>
       </c>
       <c r="R86" t="n">
-        <v>6792569</v>
+        <v>6792742</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9275,7 +9275,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131153666</v>
+        <v>131153664</v>
       </c>
       <c r="B87" t="n">
         <v>8451</v>
@@ -9309,7 +9309,7 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="N87" t="inlineStr"/>
@@ -9319,10 +9319,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>432913</v>
+        <v>433001</v>
       </c>
       <c r="R87" t="n">
-        <v>6792742</v>
+        <v>6792569</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9382,10 +9382,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131153717</v>
+        <v>131153652</v>
       </c>
       <c r="B88" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9393,21 +9393,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -9417,10 +9417,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>432932</v>
+        <v>433073</v>
       </c>
       <c r="R88" t="n">
-        <v>6792709</v>
+        <v>6792637</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -9479,10 +9479,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131153678</v>
+        <v>131153642</v>
       </c>
       <c r="B89" t="n">
-        <v>79000</v>
+        <v>57881</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9490,34 +9490,42 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6446</v>
+        <v>100049</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>433104</v>
+        <v>432888</v>
       </c>
       <c r="R89" t="n">
-        <v>6792573</v>
+        <v>6792650</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -9576,10 +9584,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131153642</v>
+        <v>131153717</v>
       </c>
       <c r="B90" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9587,42 +9595,34 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>432888</v>
+        <v>432932</v>
       </c>
       <c r="R90" t="n">
-        <v>6792650</v>
+        <v>6792709</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -9681,10 +9681,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131153652</v>
+        <v>131153678</v>
       </c>
       <c r="B91" t="n">
-        <v>79001</v>
+        <v>79000</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9692,21 +9692,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>228912</v>
+        <v>6446</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -9716,10 +9716,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>433073</v>
+        <v>433104</v>
       </c>
       <c r="R91" t="n">
-        <v>6792637</v>
+        <v>6792573</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>

--- a/artfynd/A 1159-2026 artfynd.xlsx
+++ b/artfynd/A 1159-2026 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131153673</v>
+        <v>131153674</v>
       </c>
       <c r="B2" t="n">
-        <v>8451</v>
+        <v>58256</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,30 +691,29 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>106545</v>
+        <v>103015</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Regulus regulus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -724,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>432931</v>
+        <v>432797</v>
       </c>
       <c r="R2" t="n">
-        <v>6792867</v>
+        <v>6792464</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -768,7 +767,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -787,7 +785,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131153657</v>
+        <v>131153673</v>
       </c>
       <c r="B3" t="n">
         <v>8451</v>
@@ -831,10 +829,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>432798</v>
+        <v>432931</v>
       </c>
       <c r="R3" t="n">
-        <v>6792471</v>
+        <v>6792867</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -894,7 +892,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131153661</v>
+        <v>131153657</v>
       </c>
       <c r="B4" t="n">
         <v>8451</v>
@@ -928,7 +926,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -938,10 +936,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>433099</v>
+        <v>432798</v>
       </c>
       <c r="R4" t="n">
-        <v>6792610</v>
+        <v>6792471</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1001,10 +999,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131153674</v>
+        <v>131153661</v>
       </c>
       <c r="B5" t="n">
-        <v>58256</v>
+        <v>8451</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1012,29 +1010,30 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103015</v>
+        <v>106545</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Regulus regulus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -1044,10 +1043,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>432797</v>
+        <v>433099</v>
       </c>
       <c r="R5" t="n">
-        <v>6792464</v>
+        <v>6792610</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1088,6 +1087,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>131153677</v>
       </c>
       <c r="B6" t="n">
-        <v>79000</v>
+        <v>79001</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>131153725</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1407,10 +1407,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131153632</v>
+        <v>131153689</v>
       </c>
       <c r="B9" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1418,42 +1418,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>433068</v>
+        <v>432855</v>
       </c>
       <c r="R9" t="n">
-        <v>6792622</v>
+        <v>6792784</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1512,10 +1504,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131153689</v>
+        <v>131153632</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1523,34 +1515,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>432855</v>
+        <v>433068</v>
       </c>
       <c r="R10" t="n">
-        <v>6792784</v>
+        <v>6792622</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1826,7 +1826,7 @@
         <v>131153676</v>
       </c>
       <c r="B13" t="n">
-        <v>79000</v>
+        <v>79001</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1923,7 +1923,7 @@
         <v>131153712</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>131153720</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>131153621</v>
       </c>
       <c r="B16" t="n">
-        <v>79833</v>
+        <v>79834</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2211,43 +2211,37 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131153645</v>
+        <v>131153706</v>
       </c>
       <c r="B17" t="n">
-        <v>5480</v>
+        <v>79244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>101920</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Raggbock</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Tragosoma depsarium</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1767)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2255,10 +2249,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>432996</v>
+        <v>433126</v>
       </c>
       <c r="R17" t="n">
-        <v>6792672</v>
+        <v>6792522</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2297,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="AE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
@@ -2318,10 +2312,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131153635</v>
+        <v>131153695</v>
       </c>
       <c r="B18" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2329,42 +2323,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>432968</v>
+        <v>432708</v>
       </c>
       <c r="R18" t="n">
-        <v>6792680</v>
+        <v>6792430</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2423,10 +2409,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131153706</v>
+        <v>131153635</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2434,26 +2420,31 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2461,10 +2452,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>433126</v>
+        <v>432968</v>
       </c>
       <c r="R19" t="n">
-        <v>6792522</v>
+        <v>6792680</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2505,7 +2496,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2524,45 +2514,54 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131153695</v>
+        <v>131153645</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>5480</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>101920</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Raggbock</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tragosoma depsarium</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1767)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>432708</v>
+        <v>432996</v>
       </c>
       <c r="R20" t="n">
-        <v>6792430</v>
+        <v>6792672</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2601,8 +2600,9 @@
         <v>0</v>
       </c>
       <c r="AE20" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2728,10 +2728,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131153622</v>
+        <v>131153719</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2739,31 +2739,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -2771,10 +2766,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>432996</v>
+        <v>432964</v>
       </c>
       <c r="R22" t="n">
-        <v>6792778</v>
+        <v>6792760</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2815,6 +2810,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -2833,10 +2829,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131153719</v>
+        <v>131153729</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2862,19 +2858,16 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>432964</v>
+        <v>432924</v>
       </c>
       <c r="R23" t="n">
-        <v>6792760</v>
+        <v>6792835</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2915,7 +2908,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -2934,10 +2926,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131153729</v>
+        <v>131153622</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2945,34 +2937,42 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>432924</v>
+        <v>432996</v>
       </c>
       <c r="R24" t="n">
-        <v>6792835</v>
+        <v>6792778</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3034,7 +3034,7 @@
         <v>131153718</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>131153701</v>
       </c>
       <c r="B27" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>131153650</v>
       </c>
       <c r="B28" t="n">
-        <v>79001</v>
+        <v>79002</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3429,10 +3429,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131153690</v>
+        <v>131153630</v>
       </c>
       <c r="B29" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3440,26 +3440,31 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3467,10 +3472,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>432874</v>
+        <v>433062</v>
       </c>
       <c r="R29" t="n">
-        <v>6792733</v>
+        <v>6792357</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3511,7 +3516,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3635,40 +3639,41 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131153630</v>
+        <v>131153658</v>
       </c>
       <c r="B31" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
@@ -3678,10 +3683,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>433062</v>
+        <v>433053</v>
       </c>
       <c r="R31" t="n">
-        <v>6792357</v>
+        <v>6792381</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3722,6 +3727,7 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -3740,45 +3746,54 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131153716</v>
+        <v>131153665</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>432960</v>
+        <v>432959</v>
       </c>
       <c r="R32" t="n">
-        <v>6792712</v>
+        <v>6792711</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3819,6 +3834,7 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -3837,54 +3853,45 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131153658</v>
+        <v>131153616</v>
       </c>
       <c r="B33" t="n">
-        <v>8451</v>
+        <v>79834</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>106545</v>
+        <v>229821</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>433053</v>
+        <v>432773</v>
       </c>
       <c r="R33" t="n">
-        <v>6792381</v>
+        <v>6792537</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3925,7 +3932,6 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
@@ -3944,54 +3950,45 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131153665</v>
+        <v>131153716</v>
       </c>
       <c r="B34" t="n">
-        <v>8451</v>
+        <v>79244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>432959</v>
+        <v>432960</v>
       </c>
       <c r="R34" t="n">
-        <v>6792711</v>
+        <v>6792712</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4032,7 +4029,6 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4051,10 +4047,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131153616</v>
+        <v>131153690</v>
       </c>
       <c r="B35" t="n">
-        <v>79833</v>
+        <v>79244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4062,34 +4058,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>432773</v>
+        <v>432874</v>
       </c>
       <c r="R35" t="n">
-        <v>6792537</v>
+        <v>6792733</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4130,6 +4129,7 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>131153703</v>
       </c>
       <c r="B37" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
         <v>131153702</v>
       </c>
       <c r="B38" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         <v>131153698</v>
       </c>
       <c r="B39" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>131153714</v>
       </c>
       <c r="B40" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4646,10 +4646,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131153708</v>
+        <v>131153691</v>
       </c>
       <c r="B41" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4681,10 +4681,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>433106</v>
+        <v>432881</v>
       </c>
       <c r="R41" t="n">
-        <v>6792609</v>
+        <v>6792694</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4743,10 +4743,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131153710</v>
+        <v>131153722</v>
       </c>
       <c r="B42" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>433013</v>
+        <v>432939</v>
       </c>
       <c r="R42" t="n">
-        <v>6792587</v>
+        <v>6792795</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4840,10 +4840,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131153691</v>
+        <v>131153643</v>
       </c>
       <c r="B43" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4851,34 +4851,42 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>432881</v>
+        <v>432969</v>
       </c>
       <c r="R43" t="n">
-        <v>6792694</v>
+        <v>6792418</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4937,10 +4945,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131153722</v>
+        <v>131153640</v>
       </c>
       <c r="B44" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4948,34 +4956,42 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>432939</v>
+        <v>432940</v>
       </c>
       <c r="R44" t="n">
-        <v>6792795</v>
+        <v>6792843</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5034,10 +5050,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131153692</v>
+        <v>131153708</v>
       </c>
       <c r="B45" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5069,10 +5085,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>432901</v>
+        <v>433106</v>
       </c>
       <c r="R45" t="n">
-        <v>6792625</v>
+        <v>6792609</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5131,10 +5147,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131153640</v>
+        <v>131153710</v>
       </c>
       <c r="B46" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5142,42 +5158,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>432940</v>
+        <v>433013</v>
       </c>
       <c r="R46" t="n">
-        <v>6792843</v>
+        <v>6792587</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5236,10 +5244,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131153643</v>
+        <v>131153692</v>
       </c>
       <c r="B47" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5247,42 +5255,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>432969</v>
+        <v>432901</v>
       </c>
       <c r="R47" t="n">
-        <v>6792418</v>
+        <v>6792625</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5555,10 +5555,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131153631</v>
+        <v>131153709</v>
       </c>
       <c r="B50" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5566,42 +5566,34 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>433074</v>
+        <v>433034</v>
       </c>
       <c r="R50" t="n">
-        <v>6792635</v>
+        <v>6792553</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5660,10 +5652,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131153653</v>
+        <v>131153700</v>
       </c>
       <c r="B51" t="n">
-        <v>79001</v>
+        <v>79244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5671,37 +5663,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>432956</v>
+        <v>432910</v>
       </c>
       <c r="R51" t="n">
-        <v>6792683</v>
+        <v>6792364</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5742,7 +5731,6 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -5761,10 +5749,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131153651</v>
+        <v>131153713</v>
       </c>
       <c r="B52" t="n">
-        <v>79001</v>
+        <v>79244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5772,37 +5760,34 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>433104</v>
+        <v>432988</v>
       </c>
       <c r="R52" t="n">
-        <v>6792573</v>
+        <v>6792669</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5843,7 +5828,6 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
-      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -5862,10 +5846,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131153709</v>
+        <v>131153631</v>
       </c>
       <c r="B53" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5873,34 +5857,42 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>433034</v>
+        <v>433074</v>
       </c>
       <c r="R53" t="n">
-        <v>6792553</v>
+        <v>6792635</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -5959,10 +5951,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131153700</v>
+        <v>131153653</v>
       </c>
       <c r="B54" t="n">
-        <v>79243</v>
+        <v>79002</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5970,34 +5962,37 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>432910</v>
+        <v>432956</v>
       </c>
       <c r="R54" t="n">
-        <v>6792364</v>
+        <v>6792683</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6038,6 +6033,7 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -6056,10 +6052,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131153713</v>
+        <v>131153651</v>
       </c>
       <c r="B55" t="n">
-        <v>79243</v>
+        <v>79002</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6067,34 +6063,37 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>432988</v>
+        <v>433104</v>
       </c>
       <c r="R55" t="n">
-        <v>6792669</v>
+        <v>6792573</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6135,6 +6134,7 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
@@ -6153,10 +6153,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131153696</v>
+        <v>131153618</v>
       </c>
       <c r="B56" t="n">
-        <v>79243</v>
+        <v>79834</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6164,21 +6164,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>229821</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6188,10 +6188,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>432758</v>
+        <v>433073</v>
       </c>
       <c r="R56" t="n">
-        <v>6792450</v>
+        <v>6792637</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6250,10 +6250,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131153707</v>
+        <v>131153649</v>
       </c>
       <c r="B57" t="n">
-        <v>79243</v>
+        <v>79002</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6261,21 +6261,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6285,10 +6285,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>433128</v>
+        <v>432719</v>
       </c>
       <c r="R57" t="n">
-        <v>6792592</v>
+        <v>6792423</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6347,10 +6347,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131153697</v>
+        <v>131153638</v>
       </c>
       <c r="B58" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6358,34 +6358,42 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>432785</v>
+        <v>432927</v>
       </c>
       <c r="R58" t="n">
-        <v>6792460</v>
+        <v>6792752</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6444,10 +6452,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131153704</v>
+        <v>131153696</v>
       </c>
       <c r="B59" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6479,10 +6487,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>433115</v>
+        <v>432758</v>
       </c>
       <c r="R59" t="n">
-        <v>6792436</v>
+        <v>6792450</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6541,10 +6549,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131153618</v>
+        <v>131153707</v>
       </c>
       <c r="B60" t="n">
-        <v>79833</v>
+        <v>79244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6552,21 +6560,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6576,10 +6584,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>433073</v>
+        <v>433128</v>
       </c>
       <c r="R60" t="n">
-        <v>6792637</v>
+        <v>6792592</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6638,10 +6646,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131153649</v>
+        <v>131153697</v>
       </c>
       <c r="B61" t="n">
-        <v>79001</v>
+        <v>79244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6649,21 +6657,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -6673,10 +6681,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>432719</v>
+        <v>432785</v>
       </c>
       <c r="R61" t="n">
-        <v>6792423</v>
+        <v>6792460</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -6735,10 +6743,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131153638</v>
+        <v>131153704</v>
       </c>
       <c r="B62" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6746,42 +6754,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>432927</v>
+        <v>433115</v>
       </c>
       <c r="R62" t="n">
-        <v>6792752</v>
+        <v>6792436</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -6840,10 +6840,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131153633</v>
+        <v>131153693</v>
       </c>
       <c r="B63" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6851,42 +6851,34 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>432972</v>
+        <v>432849</v>
       </c>
       <c r="R63" t="n">
-        <v>6792667</v>
+        <v>6792616</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -6945,10 +6937,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131153693</v>
+        <v>131153727</v>
       </c>
       <c r="B64" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6974,16 +6966,19 @@
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>432849</v>
+        <v>432935</v>
       </c>
       <c r="R64" t="n">
-        <v>6792616</v>
+        <v>6792834</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7024,6 +7019,7 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
+      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -7042,10 +7038,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131153727</v>
+        <v>131153633</v>
       </c>
       <c r="B65" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7053,26 +7049,31 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -7080,10 +7081,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>432935</v>
+        <v>432972</v>
       </c>
       <c r="R65" t="n">
-        <v>6792834</v>
+        <v>6792667</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7124,7 +7125,6 @@
       <c r="AE65" t="b">
         <v>0</v>
       </c>
-      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -7250,10 +7250,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131153636</v>
+        <v>131153694</v>
       </c>
       <c r="B67" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7261,42 +7261,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>432931</v>
+        <v>432842</v>
       </c>
       <c r="R67" t="n">
-        <v>6792717</v>
+        <v>6792572</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7355,10 +7347,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131153634</v>
+        <v>131153679</v>
       </c>
       <c r="B68" t="n">
-        <v>57881</v>
+        <v>79001</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7366,42 +7358,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100049</v>
+        <v>6446</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>432989</v>
+        <v>432956</v>
       </c>
       <c r="R68" t="n">
-        <v>6792671</v>
+        <v>6792683</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7460,10 +7444,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131153694</v>
+        <v>131153636</v>
       </c>
       <c r="B69" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7471,34 +7455,42 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>432842</v>
+        <v>432931</v>
       </c>
       <c r="R69" t="n">
-        <v>6792572</v>
+        <v>6792717</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7557,10 +7549,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131153679</v>
+        <v>131153634</v>
       </c>
       <c r="B70" t="n">
-        <v>79000</v>
+        <v>57881</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7568,34 +7560,42 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6446</v>
+        <v>100049</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>432956</v>
+        <v>432989</v>
       </c>
       <c r="R70" t="n">
-        <v>6792683</v>
+        <v>6792671</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -7764,7 +7764,7 @@
         <v>131153620</v>
       </c>
       <c r="B72" t="n">
-        <v>79833</v>
+        <v>79834</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7970,7 +7970,7 @@
         <v>131153711</v>
       </c>
       <c r="B74" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>131153726</v>
       </c>
       <c r="B75" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>131153721</v>
       </c>
       <c r="B76" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>131153699</v>
       </c>
       <c r="B77" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8364,10 +8364,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131153625</v>
+        <v>131153705</v>
       </c>
       <c r="B78" t="n">
-        <v>91829</v>
+        <v>79244</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8375,37 +8375,34 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>433119</v>
+        <v>433133</v>
       </c>
       <c r="R78" t="n">
-        <v>6792436</v>
+        <v>6792485</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8446,7 +8443,6 @@
       <c r="AE78" t="b">
         <v>0</v>
       </c>
-      <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="b">
         <v>0</v>
       </c>
@@ -8575,7 +8571,7 @@
         <v>131153619</v>
       </c>
       <c r="B80" t="n">
-        <v>79833</v>
+        <v>79834</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8669,10 +8665,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131153705</v>
+        <v>131153625</v>
       </c>
       <c r="B81" t="n">
-        <v>79243</v>
+        <v>91830</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8680,34 +8676,37 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>433133</v>
+        <v>433119</v>
       </c>
       <c r="R81" t="n">
-        <v>6792485</v>
+        <v>6792436</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -8748,6 +8747,7 @@
       <c r="AE81" t="b">
         <v>0</v>
       </c>
+      <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="b">
         <v>0</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>131153624</v>
       </c>
       <c r="B82" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>131153728</v>
       </c>
       <c r="B83" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>131153617</v>
       </c>
       <c r="B85" t="n">
-        <v>79833</v>
+        <v>79834</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9382,10 +9382,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131153652</v>
+        <v>131153642</v>
       </c>
       <c r="B88" t="n">
-        <v>79001</v>
+        <v>57881</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9393,34 +9393,42 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>228912</v>
+        <v>100049</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>433073</v>
+        <v>432888</v>
       </c>
       <c r="R88" t="n">
-        <v>6792637</v>
+        <v>6792650</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -9479,10 +9487,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131153642</v>
+        <v>131153717</v>
       </c>
       <c r="B89" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9490,42 +9498,34 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>432888</v>
+        <v>432932</v>
       </c>
       <c r="R89" t="n">
-        <v>6792650</v>
+        <v>6792709</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -9584,10 +9584,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131153717</v>
+        <v>131153678</v>
       </c>
       <c r="B90" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9595,21 +9595,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -9619,10 +9619,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>432932</v>
+        <v>433104</v>
       </c>
       <c r="R90" t="n">
-        <v>6792709</v>
+        <v>6792573</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -9681,10 +9681,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131153678</v>
+        <v>131153652</v>
       </c>
       <c r="B91" t="n">
-        <v>79000</v>
+        <v>79002</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9692,21 +9692,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -9716,10 +9716,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>433104</v>
+        <v>433073</v>
       </c>
       <c r="R91" t="n">
-        <v>6792573</v>
+        <v>6792637</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>

--- a/artfynd/A 1159-2026 artfynd.xlsx
+++ b/artfynd/A 1159-2026 artfynd.xlsx
@@ -1407,45 +1407,54 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131153689</v>
+        <v>131153656</v>
       </c>
       <c r="B9" t="n">
-        <v>79244</v>
+        <v>8451</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>432855</v>
+        <v>432815</v>
       </c>
       <c r="R9" t="n">
-        <v>6792784</v>
+        <v>6792564</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1486,6 +1495,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1504,40 +1514,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131153632</v>
+        <v>131153663</v>
       </c>
       <c r="B10" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1547,10 +1558,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>433068</v>
+        <v>433024</v>
       </c>
       <c r="R10" t="n">
-        <v>6792622</v>
+        <v>6792572</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1591,6 +1602,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1609,54 +1621,45 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131153656</v>
+        <v>131153689</v>
       </c>
       <c r="B11" t="n">
-        <v>8451</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>432815</v>
+        <v>432855</v>
       </c>
       <c r="R11" t="n">
-        <v>6792564</v>
+        <v>6792784</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1697,7 +1700,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1716,41 +1718,40 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131153663</v>
+        <v>131153632</v>
       </c>
       <c r="B12" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1760,10 +1761,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>433024</v>
+        <v>433068</v>
       </c>
       <c r="R12" t="n">
-        <v>6792572</v>
+        <v>6792622</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1804,7 +1805,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2409,40 +2409,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131153635</v>
+        <v>131153645</v>
       </c>
       <c r="B19" t="n">
-        <v>57881</v>
+        <v>5480</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100049</v>
+        <v>101920</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Raggbock</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tragosoma depsarium</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Linnaeus, 1767)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -2452,10 +2453,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>432968</v>
+        <v>432996</v>
       </c>
       <c r="R19" t="n">
-        <v>6792680</v>
+        <v>6792672</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2494,8 +2495,9 @@
         <v>0</v>
       </c>
       <c r="AE19" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2514,41 +2516,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131153645</v>
+        <v>131153635</v>
       </c>
       <c r="B20" t="n">
-        <v>5480</v>
+        <v>57881</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>101920</v>
+        <v>100049</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Raggbock</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Tragosoma depsarium</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1767)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -2558,10 +2559,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>432996</v>
+        <v>432968</v>
       </c>
       <c r="R20" t="n">
-        <v>6792672</v>
+        <v>6792680</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2600,9 +2601,8 @@
         <v>0</v>
       </c>
       <c r="AE20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF20" t="inlineStr"/>
+        <v>0</v>
+      </c>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -3429,40 +3429,41 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131153630</v>
+        <v>131153658</v>
       </c>
       <c r="B29" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -3472,10 +3473,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>433062</v>
+        <v>433053</v>
       </c>
       <c r="R29" t="n">
-        <v>6792357</v>
+        <v>6792381</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3516,6 +3517,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3534,40 +3536,41 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131153641</v>
+        <v>131153665</v>
       </c>
       <c r="B30" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -3577,10 +3580,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>432909</v>
+        <v>432959</v>
       </c>
       <c r="R30" t="n">
-        <v>6792876</v>
+        <v>6792711</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3621,6 +3624,7 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -3639,54 +3643,45 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131153658</v>
+        <v>131153716</v>
       </c>
       <c r="B31" t="n">
-        <v>8451</v>
+        <v>79244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>433053</v>
+        <v>432960</v>
       </c>
       <c r="R31" t="n">
-        <v>6792381</v>
+        <v>6792712</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3727,7 +3722,6 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -3746,43 +3740,37 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131153665</v>
+        <v>131153690</v>
       </c>
       <c r="B32" t="n">
-        <v>8451</v>
+        <v>79244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -3790,10 +3778,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>432959</v>
+        <v>432874</v>
       </c>
       <c r="R32" t="n">
-        <v>6792711</v>
+        <v>6792733</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3853,10 +3841,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131153616</v>
+        <v>131153630</v>
       </c>
       <c r="B33" t="n">
-        <v>79834</v>
+        <v>57881</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3864,34 +3852,42 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>229821</v>
+        <v>100049</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>432773</v>
+        <v>433062</v>
       </c>
       <c r="R33" t="n">
-        <v>6792537</v>
+        <v>6792357</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3950,10 +3946,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131153716</v>
+        <v>131153641</v>
       </c>
       <c r="B34" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3961,34 +3957,42 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>432960</v>
+        <v>432909</v>
       </c>
       <c r="R34" t="n">
-        <v>6792712</v>
+        <v>6792876</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4047,10 +4051,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131153690</v>
+        <v>131153616</v>
       </c>
       <c r="B35" t="n">
-        <v>79244</v>
+        <v>79834</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4058,37 +4062,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>229821</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>432874</v>
+        <v>432773</v>
       </c>
       <c r="R35" t="n">
-        <v>6792733</v>
+        <v>6792537</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4129,7 +4130,6 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131153628</v>
+        <v>131153702</v>
       </c>
       <c r="B36" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4159,42 +4159,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>432884</v>
+        <v>433004</v>
       </c>
       <c r="R36" t="n">
-        <v>6792734</v>
+        <v>6792374</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4253,7 +4245,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131153703</v>
+        <v>131153698</v>
       </c>
       <c r="B37" t="n">
         <v>79244</v>
@@ -4288,10 +4280,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>433063</v>
+        <v>432819</v>
       </c>
       <c r="R37" t="n">
-        <v>6792351</v>
+        <v>6792432</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4350,7 +4342,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131153702</v>
+        <v>131153714</v>
       </c>
       <c r="B38" t="n">
         <v>79244</v>
@@ -4385,10 +4377,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>433004</v>
+        <v>432946</v>
       </c>
       <c r="R38" t="n">
-        <v>6792374</v>
+        <v>6792696</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4421,6 +4413,11 @@
       <c r="AA38" t="inlineStr">
         <is>
           <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Måttligt med garnlav inom en radie av 50 m</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4447,7 +4444,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131153698</v>
+        <v>131153703</v>
       </c>
       <c r="B39" t="n">
         <v>79244</v>
@@ -4482,10 +4479,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>432819</v>
+        <v>433063</v>
       </c>
       <c r="R39" t="n">
-        <v>6792432</v>
+        <v>6792351</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4544,10 +4541,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131153714</v>
+        <v>131153628</v>
       </c>
       <c r="B40" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4555,34 +4552,42 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>432946</v>
+        <v>432884</v>
       </c>
       <c r="R40" t="n">
-        <v>6792696</v>
+        <v>6792734</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4615,11 +4620,6 @@
       <c r="AA40" t="inlineStr">
         <is>
           <t>2026-02-14</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>Måttligt med garnlav inom en radie av 50 m</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4646,45 +4646,54 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131153691</v>
+        <v>131153660</v>
       </c>
       <c r="B41" t="n">
-        <v>79244</v>
+        <v>8451</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>432881</v>
+        <v>433068</v>
       </c>
       <c r="R41" t="n">
-        <v>6792694</v>
+        <v>6792415</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4725,6 +4734,7 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -4840,10 +4850,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131153643</v>
+        <v>131153708</v>
       </c>
       <c r="B43" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4851,42 +4861,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>432969</v>
+        <v>433106</v>
       </c>
       <c r="R43" t="n">
-        <v>6792418</v>
+        <v>6792609</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4945,10 +4947,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131153640</v>
+        <v>131153710</v>
       </c>
       <c r="B44" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4956,42 +4958,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>432940</v>
+        <v>433013</v>
       </c>
       <c r="R44" t="n">
-        <v>6792843</v>
+        <v>6792587</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5050,7 +5044,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131153708</v>
+        <v>131153691</v>
       </c>
       <c r="B45" t="n">
         <v>79244</v>
@@ -5085,10 +5079,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>433106</v>
+        <v>432881</v>
       </c>
       <c r="R45" t="n">
-        <v>6792609</v>
+        <v>6792694</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5147,7 +5141,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131153710</v>
+        <v>131153692</v>
       </c>
       <c r="B46" t="n">
         <v>79244</v>
@@ -5182,10 +5176,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>433013</v>
+        <v>432901</v>
       </c>
       <c r="R46" t="n">
-        <v>6792587</v>
+        <v>6792625</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5244,10 +5238,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131153692</v>
+        <v>131153643</v>
       </c>
       <c r="B47" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5255,34 +5249,42 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>432901</v>
+        <v>432969</v>
       </c>
       <c r="R47" t="n">
-        <v>6792625</v>
+        <v>6792418</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5341,41 +5343,40 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131153660</v>
+        <v>131153640</v>
       </c>
       <c r="B48" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -5385,10 +5386,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>433068</v>
+        <v>432940</v>
       </c>
       <c r="R48" t="n">
-        <v>6792415</v>
+        <v>6792843</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5429,7 +5430,6 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -5555,10 +5555,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131153709</v>
+        <v>131153631</v>
       </c>
       <c r="B50" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5566,34 +5566,42 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>433034</v>
+        <v>433074</v>
       </c>
       <c r="R50" t="n">
-        <v>6792553</v>
+        <v>6792635</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5652,7 +5660,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131153700</v>
+        <v>131153709</v>
       </c>
       <c r="B51" t="n">
         <v>79244</v>
@@ -5687,10 +5695,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>432910</v>
+        <v>433034</v>
       </c>
       <c r="R51" t="n">
-        <v>6792364</v>
+        <v>6792553</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5749,7 +5757,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131153713</v>
+        <v>131153700</v>
       </c>
       <c r="B52" t="n">
         <v>79244</v>
@@ -5784,10 +5792,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>432988</v>
+        <v>432910</v>
       </c>
       <c r="R52" t="n">
-        <v>6792669</v>
+        <v>6792364</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5846,10 +5854,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131153631</v>
+        <v>131153713</v>
       </c>
       <c r="B53" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5857,42 +5865,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>433074</v>
+        <v>432988</v>
       </c>
       <c r="R53" t="n">
-        <v>6792635</v>
+        <v>6792669</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6153,10 +6153,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131153618</v>
+        <v>131153638</v>
       </c>
       <c r="B56" t="n">
-        <v>79834</v>
+        <v>57881</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6164,34 +6164,42 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>229821</v>
+        <v>100049</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>433073</v>
+        <v>432927</v>
       </c>
       <c r="R56" t="n">
-        <v>6792637</v>
+        <v>6792752</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6250,10 +6258,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131153649</v>
+        <v>131153618</v>
       </c>
       <c r="B57" t="n">
-        <v>79002</v>
+        <v>79834</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6261,21 +6269,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>228912</v>
+        <v>229821</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6285,10 +6293,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>432719</v>
+        <v>433073</v>
       </c>
       <c r="R57" t="n">
-        <v>6792423</v>
+        <v>6792637</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6347,10 +6355,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131153638</v>
+        <v>131153649</v>
       </c>
       <c r="B58" t="n">
-        <v>57881</v>
+        <v>79002</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6358,42 +6366,34 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100049</v>
+        <v>228912</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>432927</v>
+        <v>432719</v>
       </c>
       <c r="R58" t="n">
-        <v>6792752</v>
+        <v>6792423</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131153696</v>
+        <v>131153697</v>
       </c>
       <c r="B59" t="n">
         <v>79244</v>
@@ -6487,10 +6487,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>432758</v>
+        <v>432785</v>
       </c>
       <c r="R59" t="n">
-        <v>6792450</v>
+        <v>6792460</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6549,7 +6549,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131153707</v>
+        <v>131153696</v>
       </c>
       <c r="B60" t="n">
         <v>79244</v>
@@ -6584,10 +6584,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>433128</v>
+        <v>432758</v>
       </c>
       <c r="R60" t="n">
-        <v>6792592</v>
+        <v>6792450</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6646,7 +6646,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131153697</v>
+        <v>131153707</v>
       </c>
       <c r="B61" t="n">
         <v>79244</v>
@@ -6681,10 +6681,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>432785</v>
+        <v>433128</v>
       </c>
       <c r="R61" t="n">
-        <v>6792460</v>
+        <v>6792592</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -6840,10 +6840,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131153693</v>
+        <v>131153633</v>
       </c>
       <c r="B63" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6851,34 +6851,42 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>432849</v>
+        <v>432972</v>
       </c>
       <c r="R63" t="n">
-        <v>6792616</v>
+        <v>6792667</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -6937,7 +6945,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131153727</v>
+        <v>131153693</v>
       </c>
       <c r="B64" t="n">
         <v>79244</v>
@@ -6966,19 +6974,16 @@
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>432935</v>
+        <v>432849</v>
       </c>
       <c r="R64" t="n">
-        <v>6792834</v>
+        <v>6792616</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7019,7 +7024,6 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
-      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -7038,10 +7042,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131153633</v>
+        <v>131153727</v>
       </c>
       <c r="B65" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7049,31 +7053,26 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -7081,10 +7080,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>432972</v>
+        <v>432935</v>
       </c>
       <c r="R65" t="n">
-        <v>6792667</v>
+        <v>6792834</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7125,6 +7124,7 @@
       <c r="AE65" t="b">
         <v>0</v>
       </c>
+      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -7250,10 +7250,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131153694</v>
+        <v>131153636</v>
       </c>
       <c r="B67" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7261,34 +7261,42 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>432842</v>
+        <v>432931</v>
       </c>
       <c r="R67" t="n">
-        <v>6792572</v>
+        <v>6792717</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7347,10 +7355,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131153679</v>
+        <v>131153634</v>
       </c>
       <c r="B68" t="n">
-        <v>79001</v>
+        <v>57881</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7358,34 +7366,42 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6446</v>
+        <v>100049</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>432956</v>
+        <v>432989</v>
       </c>
       <c r="R68" t="n">
-        <v>6792683</v>
+        <v>6792671</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7444,10 +7460,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131153636</v>
+        <v>131153620</v>
       </c>
       <c r="B69" t="n">
-        <v>57881</v>
+        <v>79834</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7455,31 +7471,26 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>100049</v>
+        <v>229821</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
@@ -7487,10 +7498,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>432931</v>
+        <v>433058</v>
       </c>
       <c r="R69" t="n">
-        <v>6792717</v>
+        <v>6792468</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7531,6 +7542,7 @@
       <c r="AE69" t="b">
         <v>0</v>
       </c>
+      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
       </c>
@@ -7549,10 +7561,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131153634</v>
+        <v>131153694</v>
       </c>
       <c r="B70" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7560,42 +7572,34 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>432989</v>
+        <v>432842</v>
       </c>
       <c r="R70" t="n">
-        <v>6792671</v>
+        <v>6792572</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -7654,54 +7658,45 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131153655</v>
+        <v>131153679</v>
       </c>
       <c r="B71" t="n">
-        <v>8451</v>
+        <v>79001</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>106545</v>
+        <v>6446</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>432876</v>
+        <v>432956</v>
       </c>
       <c r="R71" t="n">
-        <v>6792590</v>
+        <v>6792683</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -7742,7 +7737,6 @@
       <c r="AE71" t="b">
         <v>0</v>
       </c>
-      <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="b">
         <v>0</v>
       </c>
@@ -7761,37 +7755,43 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131153620</v>
+        <v>131153655</v>
       </c>
       <c r="B72" t="n">
-        <v>79834</v>
+        <v>8451</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>229821</v>
+        <v>106545</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
@@ -7799,10 +7799,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>433058</v>
+        <v>432876</v>
       </c>
       <c r="R72" t="n">
-        <v>6792468</v>
+        <v>6792590</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -7862,10 +7862,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131153639</v>
+        <v>131153705</v>
       </c>
       <c r="B73" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7873,42 +7873,34 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>432988</v>
+        <v>433133</v>
       </c>
       <c r="R73" t="n">
-        <v>6792798</v>
+        <v>6792485</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -7967,10 +7959,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131153711</v>
+        <v>131153625</v>
       </c>
       <c r="B74" t="n">
-        <v>79244</v>
+        <v>91830</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7978,34 +7970,37 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6425</v>
+        <v>5442</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>432942</v>
+        <v>433119</v>
       </c>
       <c r="R74" t="n">
-        <v>6792639</v>
+        <v>6792436</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8046,6 +8041,7 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -8064,7 +8060,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131153726</v>
+        <v>131153711</v>
       </c>
       <c r="B75" t="n">
         <v>79244</v>
@@ -8099,10 +8095,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>432891</v>
+        <v>432942</v>
       </c>
       <c r="R75" t="n">
-        <v>6792834</v>
+        <v>6792639</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8161,7 +8157,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131153721</v>
+        <v>131153726</v>
       </c>
       <c r="B76" t="n">
         <v>79244</v>
@@ -8190,19 +8186,16 @@
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>432957</v>
+        <v>432891</v>
       </c>
       <c r="R76" t="n">
-        <v>6792790</v>
+        <v>6792834</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8237,18 +8230,12 @@
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>Måttligt med garnlav inom en radie av 50m</t>
-        </is>
-      </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
       <c r="AE76" t="b">
         <v>0</v>
       </c>
-      <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="b">
         <v>0</v>
       </c>
@@ -8267,7 +8254,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131153699</v>
+        <v>131153721</v>
       </c>
       <c r="B77" t="n">
         <v>79244</v>
@@ -8296,16 +8283,19 @@
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>432849</v>
+        <v>432957</v>
       </c>
       <c r="R77" t="n">
-        <v>6792408</v>
+        <v>6792790</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8340,12 +8330,18 @@
           <t>2026-02-14</t>
         </is>
       </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>Måttligt med garnlav inom en radie av 50m</t>
+        </is>
+      </c>
       <c r="AD77" t="b">
         <v>0</v>
       </c>
       <c r="AE77" t="b">
         <v>0</v>
       </c>
+      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="b">
         <v>0</v>
       </c>
@@ -8364,7 +8360,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131153705</v>
+        <v>131153699</v>
       </c>
       <c r="B78" t="n">
         <v>79244</v>
@@ -8399,10 +8395,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>433133</v>
+        <v>432849</v>
       </c>
       <c r="R78" t="n">
-        <v>6792485</v>
+        <v>6792408</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8461,41 +8457,40 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131153669</v>
+        <v>131153639</v>
       </c>
       <c r="B79" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N79" t="inlineStr"/>
@@ -8505,10 +8500,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>432941</v>
+        <v>432988</v>
       </c>
       <c r="R79" t="n">
-        <v>6792778</v>
+        <v>6792798</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -8549,7 +8544,6 @@
       <c r="AE79" t="b">
         <v>0</v>
       </c>
-      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="b">
         <v>0</v>
       </c>
@@ -8665,37 +8659,43 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131153625</v>
+        <v>131153669</v>
       </c>
       <c r="B81" t="n">
-        <v>91830</v>
+        <v>8451</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>5442</v>
+        <v>106545</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
@@ -8703,10 +8703,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>433119</v>
+        <v>432941</v>
       </c>
       <c r="R81" t="n">
-        <v>6792436</v>
+        <v>6792778</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9071,45 +9071,54 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131153617</v>
+        <v>131153666</v>
       </c>
       <c r="B85" t="n">
-        <v>79834</v>
+        <v>8451</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>229821</v>
+        <v>106545</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>432828</v>
+        <v>432913</v>
       </c>
       <c r="R85" t="n">
-        <v>6792424</v>
+        <v>6792742</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9150,6 +9159,7 @@
       <c r="AE85" t="b">
         <v>0</v>
       </c>
+      <c r="AF85" t="inlineStr"/>
       <c r="AG85" t="b">
         <v>0</v>
       </c>
@@ -9168,7 +9178,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131153666</v>
+        <v>131153664</v>
       </c>
       <c r="B86" t="n">
         <v>8451</v>
@@ -9202,7 +9212,7 @@
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="N86" t="inlineStr"/>
@@ -9212,10 +9222,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>432913</v>
+        <v>433001</v>
       </c>
       <c r="R86" t="n">
-        <v>6792742</v>
+        <v>6792569</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9275,54 +9285,45 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131153664</v>
+        <v>131153617</v>
       </c>
       <c r="B87" t="n">
-        <v>8451</v>
+        <v>79834</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>106545</v>
+        <v>229821</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>433001</v>
+        <v>432828</v>
       </c>
       <c r="R87" t="n">
-        <v>6792569</v>
+        <v>6792424</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9363,7 +9364,6 @@
       <c r="AE87" t="b">
         <v>0</v>
       </c>
-      <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="b">
         <v>0</v>
       </c>
@@ -9382,10 +9382,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131153642</v>
+        <v>131153717</v>
       </c>
       <c r="B88" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9393,42 +9393,34 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>432888</v>
+        <v>432932</v>
       </c>
       <c r="R88" t="n">
-        <v>6792650</v>
+        <v>6792709</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -9487,10 +9479,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131153717</v>
+        <v>131153678</v>
       </c>
       <c r="B89" t="n">
-        <v>79244</v>
+        <v>79001</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9498,21 +9490,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -9522,10 +9514,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>432932</v>
+        <v>433104</v>
       </c>
       <c r="R89" t="n">
-        <v>6792709</v>
+        <v>6792573</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -9584,10 +9576,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131153678</v>
+        <v>131153642</v>
       </c>
       <c r="B90" t="n">
-        <v>79001</v>
+        <v>57881</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -9595,34 +9587,42 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6446</v>
+        <v>100049</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>433104</v>
+        <v>432888</v>
       </c>
       <c r="R90" t="n">
-        <v>6792573</v>
+        <v>6792650</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>

--- a/artfynd/A 1159-2026 artfynd.xlsx
+++ b/artfynd/A 1159-2026 artfynd.xlsx
@@ -1407,54 +1407,45 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131153656</v>
+        <v>131153689</v>
       </c>
       <c r="B9" t="n">
-        <v>8451</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>432815</v>
+        <v>432855</v>
       </c>
       <c r="R9" t="n">
-        <v>6792564</v>
+        <v>6792784</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1495,7 +1486,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1621,10 +1611,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131153689</v>
+        <v>131153632</v>
       </c>
       <c r="B11" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1632,34 +1622,42 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>432855</v>
+        <v>433068</v>
       </c>
       <c r="R11" t="n">
-        <v>6792784</v>
+        <v>6792622</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1718,40 +1716,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131153632</v>
+        <v>131153656</v>
       </c>
       <c r="B12" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1761,10 +1760,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>433068</v>
+        <v>432815</v>
       </c>
       <c r="R12" t="n">
-        <v>6792622</v>
+        <v>6792564</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1805,6 +1804,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1823,10 +1823,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131153676</v>
+        <v>131153712</v>
       </c>
       <c r="B13" t="n">
-        <v>79001</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1834,21 +1834,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1858,10 +1858,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>432719</v>
+        <v>432967</v>
       </c>
       <c r="R13" t="n">
-        <v>6792423</v>
+        <v>6792669</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1920,10 +1920,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131153712</v>
+        <v>131153621</v>
       </c>
       <c r="B14" t="n">
-        <v>79244</v>
+        <v>79834</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1931,21 +1931,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>229821</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1955,10 +1955,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>432967</v>
+        <v>433070</v>
       </c>
       <c r="R14" t="n">
-        <v>6792669</v>
+        <v>6792624</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2017,10 +2017,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131153720</v>
+        <v>131153676</v>
       </c>
       <c r="B15" t="n">
-        <v>79244</v>
+        <v>79001</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2028,21 +2028,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2052,10 +2052,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>432962</v>
+        <v>432719</v>
       </c>
       <c r="R15" t="n">
-        <v>6792773</v>
+        <v>6792423</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2114,10 +2114,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131153621</v>
+        <v>131153720</v>
       </c>
       <c r="B16" t="n">
-        <v>79834</v>
+        <v>79244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2125,21 +2125,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2149,10 +2149,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>433070</v>
+        <v>432962</v>
       </c>
       <c r="R16" t="n">
-        <v>6792624</v>
+        <v>6792773</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2211,10 +2211,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131153706</v>
+        <v>131153635</v>
       </c>
       <c r="B17" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2222,26 +2222,31 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2249,10 +2254,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>433126</v>
+        <v>432968</v>
       </c>
       <c r="R17" t="n">
-        <v>6792522</v>
+        <v>6792680</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2293,7 +2298,6 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2312,7 +2316,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131153695</v>
+        <v>131153706</v>
       </c>
       <c r="B18" t="n">
         <v>79244</v>
@@ -2341,16 +2345,19 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>432708</v>
+        <v>433126</v>
       </c>
       <c r="R18" t="n">
-        <v>6792430</v>
+        <v>6792522</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2391,6 +2398,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2409,54 +2417,45 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131153645</v>
+        <v>131153695</v>
       </c>
       <c r="B19" t="n">
-        <v>5480</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>101920</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Raggbock</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tragosoma depsarium</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1767)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>432996</v>
+        <v>432708</v>
       </c>
       <c r="R19" t="n">
-        <v>6792672</v>
+        <v>6792430</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2495,9 +2494,8 @@
         <v>0</v>
       </c>
       <c r="AE19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF19" t="inlineStr"/>
+        <v>0</v>
+      </c>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2516,40 +2514,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131153635</v>
+        <v>131153645</v>
       </c>
       <c r="B20" t="n">
-        <v>57881</v>
+        <v>5480</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100049</v>
+        <v>101920</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Raggbock</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tragosoma depsarium</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Linnaeus, 1767)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -2559,10 +2558,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>432968</v>
+        <v>432996</v>
       </c>
       <c r="R20" t="n">
-        <v>6792680</v>
+        <v>6792672</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2601,8 +2600,9 @@
         <v>0</v>
       </c>
       <c r="AE20" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131153719</v>
+        <v>131153729</v>
       </c>
       <c r="B22" t="n">
         <v>79244</v>
@@ -2757,19 +2757,16 @@
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>432964</v>
+        <v>432924</v>
       </c>
       <c r="R22" t="n">
-        <v>6792760</v>
+        <v>6792835</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2810,7 +2807,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -2829,7 +2825,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131153729</v>
+        <v>131153719</v>
       </c>
       <c r="B23" t="n">
         <v>79244</v>
@@ -2858,16 +2854,19 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>432924</v>
+        <v>432964</v>
       </c>
       <c r="R23" t="n">
-        <v>6792835</v>
+        <v>6792760</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2908,6 +2907,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3429,54 +3429,45 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131153658</v>
+        <v>131153716</v>
       </c>
       <c r="B29" t="n">
-        <v>8451</v>
+        <v>79244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>433053</v>
+        <v>432960</v>
       </c>
       <c r="R29" t="n">
-        <v>6792381</v>
+        <v>6792712</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3517,7 +3508,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3536,41 +3526,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131153665</v>
+        <v>131153630</v>
       </c>
       <c r="B30" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -3580,10 +3569,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>432959</v>
+        <v>433062</v>
       </c>
       <c r="R30" t="n">
-        <v>6792711</v>
+        <v>6792357</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3624,7 +3613,6 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -3643,10 +3631,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131153716</v>
+        <v>131153641</v>
       </c>
       <c r="B31" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3654,34 +3642,42 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>432960</v>
+        <v>432909</v>
       </c>
       <c r="R31" t="n">
-        <v>6792712</v>
+        <v>6792876</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3740,37 +3736,43 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131153690</v>
+        <v>131153658</v>
       </c>
       <c r="B32" t="n">
-        <v>79244</v>
+        <v>8451</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -3778,10 +3780,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>432874</v>
+        <v>433053</v>
       </c>
       <c r="R32" t="n">
-        <v>6792733</v>
+        <v>6792381</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3841,40 +3843,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131153630</v>
+        <v>131153665</v>
       </c>
       <c r="B33" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
@@ -3884,10 +3887,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>433062</v>
+        <v>432959</v>
       </c>
       <c r="R33" t="n">
-        <v>6792357</v>
+        <v>6792711</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3928,6 +3931,7 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
@@ -3946,10 +3950,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131153641</v>
+        <v>131153616</v>
       </c>
       <c r="B34" t="n">
-        <v>57881</v>
+        <v>79834</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3957,42 +3961,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100049</v>
+        <v>229821</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>432909</v>
+        <v>432773</v>
       </c>
       <c r="R34" t="n">
-        <v>6792876</v>
+        <v>6792537</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4051,10 +4047,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131153616</v>
+        <v>131153690</v>
       </c>
       <c r="B35" t="n">
-        <v>79834</v>
+        <v>79244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4062,34 +4058,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>432773</v>
+        <v>432874</v>
       </c>
       <c r="R35" t="n">
-        <v>6792537</v>
+        <v>6792733</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4130,6 +4129,7 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131153702</v>
+        <v>131153628</v>
       </c>
       <c r="B36" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4159,34 +4159,42 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>433004</v>
+        <v>432884</v>
       </c>
       <c r="R36" t="n">
-        <v>6792374</v>
+        <v>6792734</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4245,7 +4253,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131153698</v>
+        <v>131153702</v>
       </c>
       <c r="B37" t="n">
         <v>79244</v>
@@ -4280,10 +4288,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>432819</v>
+        <v>433004</v>
       </c>
       <c r="R37" t="n">
-        <v>6792432</v>
+        <v>6792374</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4342,7 +4350,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131153714</v>
+        <v>131153698</v>
       </c>
       <c r="B38" t="n">
         <v>79244</v>
@@ -4377,10 +4385,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>432946</v>
+        <v>432819</v>
       </c>
       <c r="R38" t="n">
-        <v>6792696</v>
+        <v>6792432</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4413,11 +4421,6 @@
       <c r="AA38" t="inlineStr">
         <is>
           <t>2026-02-14</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Måttligt med garnlav inom en radie av 50 m</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4541,10 +4544,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131153628</v>
+        <v>131153714</v>
       </c>
       <c r="B40" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4552,42 +4555,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>432884</v>
+        <v>432946</v>
       </c>
       <c r="R40" t="n">
-        <v>6792734</v>
+        <v>6792696</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4620,6 +4615,11 @@
       <c r="AA40" t="inlineStr">
         <is>
           <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Måttligt med garnlav inom en radie av 50 m</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4646,41 +4646,40 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131153660</v>
+        <v>131153643</v>
       </c>
       <c r="B41" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N41" t="inlineStr"/>
@@ -4690,10 +4689,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>433068</v>
+        <v>432969</v>
       </c>
       <c r="R41" t="n">
-        <v>6792415</v>
+        <v>6792418</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4734,7 +4733,6 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -4753,10 +4751,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131153722</v>
+        <v>131153640</v>
       </c>
       <c r="B42" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4764,34 +4762,42 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>432939</v>
+        <v>432940</v>
       </c>
       <c r="R42" t="n">
-        <v>6792795</v>
+        <v>6792843</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5141,7 +5147,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>131153692</v>
+        <v>131153722</v>
       </c>
       <c r="B46" t="n">
         <v>79244</v>
@@ -5176,10 +5182,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>432901</v>
+        <v>432939</v>
       </c>
       <c r="R46" t="n">
-        <v>6792625</v>
+        <v>6792795</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5238,10 +5244,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131153643</v>
+        <v>131153692</v>
       </c>
       <c r="B47" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5249,42 +5255,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>432969</v>
+        <v>432901</v>
       </c>
       <c r="R47" t="n">
-        <v>6792418</v>
+        <v>6792625</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5343,40 +5341,41 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131153640</v>
+        <v>131153660</v>
       </c>
       <c r="B48" t="n">
-        <v>57881</v>
+        <v>8451</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100049</v>
+        <v>106545</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -5386,10 +5385,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>432940</v>
+        <v>433068</v>
       </c>
       <c r="R48" t="n">
-        <v>6792843</v>
+        <v>6792415</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5430,6 +5429,7 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6258,10 +6258,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131153618</v>
+        <v>131153697</v>
       </c>
       <c r="B57" t="n">
-        <v>79834</v>
+        <v>79244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6269,21 +6269,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6293,10 +6293,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>433073</v>
+        <v>432785</v>
       </c>
       <c r="R57" t="n">
-        <v>6792637</v>
+        <v>6792460</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6355,10 +6355,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131153649</v>
+        <v>131153618</v>
       </c>
       <c r="B58" t="n">
-        <v>79002</v>
+        <v>79834</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6366,21 +6366,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>228912</v>
+        <v>229821</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6390,10 +6390,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>432719</v>
+        <v>433073</v>
       </c>
       <c r="R58" t="n">
-        <v>6792423</v>
+        <v>6792637</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6452,10 +6452,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131153697</v>
+        <v>131153649</v>
       </c>
       <c r="B59" t="n">
-        <v>79244</v>
+        <v>79002</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6463,21 +6463,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6487,10 +6487,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>432785</v>
+        <v>432719</v>
       </c>
       <c r="R59" t="n">
-        <v>6792460</v>
+        <v>6792423</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6840,10 +6840,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131153633</v>
+        <v>131153693</v>
       </c>
       <c r="B63" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6851,42 +6851,34 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>432972</v>
+        <v>432849</v>
       </c>
       <c r="R63" t="n">
-        <v>6792667</v>
+        <v>6792616</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -6945,7 +6937,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131153693</v>
+        <v>131153727</v>
       </c>
       <c r="B64" t="n">
         <v>79244</v>
@@ -6974,16 +6966,19 @@
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>432849</v>
+        <v>432935</v>
       </c>
       <c r="R64" t="n">
-        <v>6792616</v>
+        <v>6792834</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7024,6 +7019,7 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
+      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -7042,37 +7038,43 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131153727</v>
+        <v>131153654</v>
       </c>
       <c r="B65" t="n">
-        <v>79244</v>
+        <v>8451</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -7080,10 +7082,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>432935</v>
+        <v>432866</v>
       </c>
       <c r="R65" t="n">
-        <v>6792834</v>
+        <v>6792755</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7143,41 +7145,40 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131153654</v>
+        <v>131153633</v>
       </c>
       <c r="B66" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
@@ -7187,10 +7188,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>432866</v>
+        <v>432972</v>
       </c>
       <c r="R66" t="n">
-        <v>6792755</v>
+        <v>6792667</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7231,7 +7232,6 @@
       <c r="AE66" t="b">
         <v>0</v>
       </c>
-      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
       </c>
@@ -7250,10 +7250,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131153636</v>
+        <v>131153694</v>
       </c>
       <c r="B67" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7261,42 +7261,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>432931</v>
+        <v>432842</v>
       </c>
       <c r="R67" t="n">
-        <v>6792717</v>
+        <v>6792572</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7355,10 +7347,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131153634</v>
+        <v>131153679</v>
       </c>
       <c r="B68" t="n">
-        <v>57881</v>
+        <v>79001</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7366,42 +7358,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100049</v>
+        <v>6446</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>432989</v>
+        <v>432956</v>
       </c>
       <c r="R68" t="n">
-        <v>6792671</v>
+        <v>6792683</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7460,37 +7444,43 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131153620</v>
+        <v>131153655</v>
       </c>
       <c r="B69" t="n">
-        <v>79834</v>
+        <v>8451</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>229821</v>
+        <v>106545</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
@@ -7498,10 +7488,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>433058</v>
+        <v>432876</v>
       </c>
       <c r="R69" t="n">
-        <v>6792468</v>
+        <v>6792590</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7561,10 +7551,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131153694</v>
+        <v>131153620</v>
       </c>
       <c r="B70" t="n">
-        <v>79244</v>
+        <v>79834</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7572,34 +7562,37 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>229821</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>432842</v>
+        <v>433058</v>
       </c>
       <c r="R70" t="n">
-        <v>6792572</v>
+        <v>6792468</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -7640,6 +7633,7 @@
       <c r="AE70" t="b">
         <v>0</v>
       </c>
+      <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="b">
         <v>0</v>
       </c>
@@ -7658,10 +7652,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131153679</v>
+        <v>131153636</v>
       </c>
       <c r="B71" t="n">
-        <v>79001</v>
+        <v>57881</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7669,34 +7663,42 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6446</v>
+        <v>100049</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>432956</v>
+        <v>432931</v>
       </c>
       <c r="R71" t="n">
-        <v>6792683</v>
+        <v>6792717</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -7755,41 +7757,40 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131153655</v>
+        <v>131153634</v>
       </c>
       <c r="B72" t="n">
-        <v>8451</v>
+        <v>57881</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>106545</v>
+        <v>100049</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N72" t="inlineStr"/>
@@ -7799,10 +7800,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>432876</v>
+        <v>432989</v>
       </c>
       <c r="R72" t="n">
-        <v>6792590</v>
+        <v>6792671</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -7843,7 +7844,6 @@
       <c r="AE72" t="b">
         <v>0</v>
       </c>
-      <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="b">
         <v>0</v>
       </c>
@@ -7862,10 +7862,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131153705</v>
+        <v>131153639</v>
       </c>
       <c r="B73" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7873,34 +7873,42 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>433133</v>
+        <v>432988</v>
       </c>
       <c r="R73" t="n">
-        <v>6792485</v>
+        <v>6792798</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -7959,10 +7967,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131153625</v>
+        <v>131153721</v>
       </c>
       <c r="B74" t="n">
-        <v>91830</v>
+        <v>79244</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7970,21 +7978,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -7997,10 +8005,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>433119</v>
+        <v>432957</v>
       </c>
       <c r="R74" t="n">
-        <v>6792436</v>
+        <v>6792790</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8033,6 +8041,11 @@
       <c r="AA74" t="inlineStr">
         <is>
           <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>Måttligt med garnlav inom en radie av 50m</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8060,7 +8073,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131153711</v>
+        <v>131153705</v>
       </c>
       <c r="B75" t="n">
         <v>79244</v>
@@ -8095,10 +8108,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>432942</v>
+        <v>433133</v>
       </c>
       <c r="R75" t="n">
-        <v>6792639</v>
+        <v>6792485</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8157,10 +8170,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131153726</v>
+        <v>131153619</v>
       </c>
       <c r="B76" t="n">
-        <v>79244</v>
+        <v>79834</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8168,21 +8181,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6425</v>
+        <v>229821</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -8192,10 +8205,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>432891</v>
+        <v>433004</v>
       </c>
       <c r="R76" t="n">
-        <v>6792834</v>
+        <v>6792784</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8254,7 +8267,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131153721</v>
+        <v>131153711</v>
       </c>
       <c r="B77" t="n">
         <v>79244</v>
@@ -8283,19 +8296,16 @@
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>432957</v>
+        <v>432942</v>
       </c>
       <c r="R77" t="n">
-        <v>6792790</v>
+        <v>6792639</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8330,18 +8340,12 @@
           <t>2026-02-14</t>
         </is>
       </c>
-      <c r="AC77" t="inlineStr">
-        <is>
-          <t>Måttligt med garnlav inom en radie av 50m</t>
-        </is>
-      </c>
       <c r="AD77" t="b">
         <v>0</v>
       </c>
       <c r="AE77" t="b">
         <v>0</v>
       </c>
-      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="b">
         <v>0</v>
       </c>
@@ -8360,7 +8364,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131153699</v>
+        <v>131153726</v>
       </c>
       <c r="B78" t="n">
         <v>79244</v>
@@ -8395,10 +8399,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>432849</v>
+        <v>432891</v>
       </c>
       <c r="R78" t="n">
-        <v>6792408</v>
+        <v>6792834</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8457,10 +8461,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131153639</v>
+        <v>131153699</v>
       </c>
       <c r="B79" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -8468,42 +8472,34 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>432988</v>
+        <v>432849</v>
       </c>
       <c r="R79" t="n">
-        <v>6792798</v>
+        <v>6792408</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -8562,10 +8558,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131153619</v>
+        <v>131153625</v>
       </c>
       <c r="B80" t="n">
-        <v>79834</v>
+        <v>91830</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8573,34 +8569,37 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>229821</v>
+        <v>5442</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
           <t>Klittkarltjärnarna, Dlr</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>433004</v>
+        <v>433119</v>
       </c>
       <c r="R80" t="n">
-        <v>6792784</v>
+        <v>6792436</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -8641,6 +8640,7 @@
       <c r="AE80" t="b">
         <v>0</v>
       </c>
+      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
@@ -8766,37 +8766,43 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131153624</v>
+        <v>131153659</v>
       </c>
       <c r="B82" t="n">
-        <v>91830</v>
+        <v>8451</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>5442</v>
+        <v>106545</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
@@ -8804,10 +8810,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>433010</v>
+        <v>433073</v>
       </c>
       <c r="R82" t="n">
-        <v>6792353</v>
+        <v>6792412</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -8964,43 +8970,37 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131153659</v>
+        <v>131153624</v>
       </c>
       <c r="B84" t="n">
-        <v>8451</v>
+        <v>91830</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>106545</v>
+        <v>5442</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
@@ -9008,10 +9008,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>433073</v>
+        <v>433010</v>
       </c>
       <c r="R84" t="n">
-        <v>6792412</v>
+        <v>6792353</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9479,10 +9479,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131153678</v>
+        <v>131153652</v>
       </c>
       <c r="B89" t="n">
-        <v>79001</v>
+        <v>79002</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -9490,21 +9490,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -9514,10 +9514,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>433104</v>
+        <v>433073</v>
       </c>
       <c r="R89" t="n">
-        <v>6792573</v>
+        <v>6792637</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -9681,10 +9681,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131153652</v>
+        <v>131153678</v>
       </c>
       <c r="B91" t="n">
-        <v>79002</v>
+        <v>79001</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9692,21 +9692,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>228912</v>
+        <v>6446</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -9716,10 +9716,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>433073</v>
+        <v>433104</v>
       </c>
       <c r="R91" t="n">
-        <v>6792637</v>
+        <v>6792573</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
